--- a/data/trans_camb/P16A03-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.18156110571835</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.5899284645109095</v>
+        <v>-0.58992846451091</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.797962845383883</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.54782144818681</v>
+        <v>-4.494566754244467</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.153939595292875</v>
+        <v>-4.132985380146268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.635397674277524</v>
+        <v>-2.686714494779399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.013414611644582</v>
+        <v>-4.278107031366553</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.415399953475651</v>
+        <v>-5.326874783526655</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.322905217901872</v>
+        <v>-4.261520644340442</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.050405069915382</v>
+        <v>-4.047889332464075</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.587922608003923</v>
+        <v>-4.628636674806635</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.181339568570762</v>
+        <v>-3.232179998378489</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.246861128156526</v>
+        <v>-1.112838465073962</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.7130950625616705</v>
+        <v>-0.7014600829788643</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.217480472482739</v>
+        <v>1.328590241531349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4262472796825029</v>
+        <v>0.4734723791969457</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.19120186088386</v>
+        <v>-1.26868517690237</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3643961350459989</v>
+        <v>0.3551657935748458</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.9914370408911367</v>
+        <v>-1.240871763443435</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.695297872332835</v>
+        <v>-1.880462586895484</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02051523886560704</v>
+        <v>-0.0444880436930656</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.6550619852939832</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1771390726260219</v>
+        <v>-0.177139072626022</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2395640500701045</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.9190901168136366</v>
+        <v>-0.9097316493944344</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8496289002373093</v>
+        <v>-0.8387452873928116</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5799641002438916</v>
+        <v>-0.580826347024055</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4533495680769156</v>
+        <v>-0.4767870038250359</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6157785945224147</v>
+        <v>-0.6081032370955277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5011967381649866</v>
+        <v>-0.4896081437751568</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5855081149370182</v>
+        <v>-0.5903002611046029</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6635155811013854</v>
+        <v>-0.6641918311901032</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4675112469198485</v>
+        <v>-0.4706326619452145</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4927290416877642</v>
+        <v>-0.4375724431038858</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2427629431129048</v>
+        <v>-0.2478024328529202</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6313339099817158</v>
+        <v>0.6537913272048439</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.07000072965717295</v>
+        <v>0.08468157293161675</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1950103514488548</v>
+        <v>-0.1866201854513198</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06957368016558499</v>
+        <v>0.06453187391018911</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.196905710333476</v>
+        <v>-0.2410768657500582</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3327029975771244</v>
+        <v>-0.3457615110453268</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.01308740528998148</v>
+        <v>-0.001311381573029066</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.1043652970233544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6311213045053233</v>
+        <v>0.6311213045053237</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.279934949686407</v>
@@ -869,7 +869,7 @@
         <v>-1.027867903853105</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.6210559531015805</v>
+        <v>0.6210559531015819</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6977573904292076</v>
@@ -878,7 +878,7 @@
         <v>-0.4074461436383414</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7418760346726218</v>
+        <v>0.741876034672621</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.150560932867595</v>
+        <v>-1.245824765473732</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9537687683106073</v>
+        <v>-0.9479242337450997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4425290900712173</v>
+        <v>-0.5731562339048529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5766477865584733</v>
+        <v>-0.5099745581870522</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.669065364700123</v>
+        <v>-2.771877260313174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9084864810025092</v>
+        <v>-1.052180238322657</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4104170336779587</v>
+        <v>-0.3033529933291969</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.485439295801581</v>
+        <v>-1.366315255290068</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2959963803552393</v>
+        <v>-0.2613012076294195</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.037802577343184</v>
+        <v>0.9488907027916434</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.252041317686238</v>
+        <v>1.220962666457928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.724115156862857</v>
+        <v>1.746579591024625</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.030587445511585</v>
+        <v>3.351203999868698</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6487875081768212</v>
+        <v>0.5661130270495349</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.421412091770951</v>
+        <v>2.298352400968791</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.804268740894764</v>
+        <v>1.732921783790206</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5382061812455581</v>
+        <v>0.5984645496858249</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.723270090797399</v>
+        <v>1.727522153137186</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.07317218378675219</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4424892699214401</v>
+        <v>0.4424892699214403</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3065791539740029</v>
@@ -974,7 +974,7 @@
         <v>-0.2462022561674123</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1487597543289607</v>
+        <v>0.148759754328961</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2503170594796364</v>
@@ -983,7 +983,7 @@
         <v>-0.1461693161130549</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2661444078484532</v>
+        <v>0.2661444078484529</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6245240114566223</v>
+        <v>-0.6515457257017487</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5214744875187028</v>
+        <v>-0.511184244954175</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2697299137364389</v>
+        <v>-0.3260064760578804</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1205987650874411</v>
+        <v>-0.1028167365301203</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5362179018611573</v>
+        <v>-0.5294810019153252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1857503554712088</v>
+        <v>-0.1965724472414588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1421913953027417</v>
+        <v>-0.1093862703393574</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4416799915008169</v>
+        <v>-0.4152497264105576</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.09391241022446213</v>
+        <v>-0.08031564761530788</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.287972963718069</v>
+        <v>1.132944253884363</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.370718954500272</v>
+        <v>1.238666446825186</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.763632925643273</v>
+        <v>1.683165778079983</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9330486714301863</v>
+        <v>1.009337558177437</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1637342674179549</v>
+        <v>0.1905271701430182</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7553807629002924</v>
+        <v>0.7218704158421438</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7598378441170079</v>
+        <v>0.746334613231471</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2409049830352693</v>
+        <v>0.2533535299881275</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7580812949266835</v>
+        <v>0.7835658673077391</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.2786830325042632</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.1678436772364705</v>
+        <v>-0.1678436772364702</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.350008086070624</v>
@@ -1083,7 +1083,7 @@
         <v>0.7513115228400126</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2237836184901323</v>
+        <v>0.223783618490133</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.075624363245562</v>
@@ -1092,7 +1092,7 @@
         <v>0.2568298559293164</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1123397885501379</v>
+        <v>0.1123397885501386</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.451265484085015</v>
+        <v>-1.600816919679396</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.598855781529262</v>
+        <v>-1.494771288335685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.337838110642912</v>
+        <v>-1.302460842590122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2236775230454876</v>
+        <v>0.0422123780429261</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.281313646991808</v>
+        <v>-1.212699453056527</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.505760082439518</v>
+        <v>-1.697074161251057</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2513010267805844</v>
+        <v>-0.216634680095165</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8562927338253506</v>
+        <v>-0.8498455422261408</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.9605168387326942</v>
+        <v>-0.9352150153717737</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9439679745266178</v>
+        <v>0.8807518134411952</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9254655190400732</v>
+        <v>1.036790199541649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9802956640080756</v>
+        <v>1.058381111098829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.668820505548832</v>
+        <v>4.450623285706488</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.827762334300368</v>
+        <v>2.760908618302754</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.889285803448557</v>
+        <v>1.9586487876073</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.405346332943136</v>
+        <v>2.367483991826679</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.480655870593726</v>
+        <v>1.491799910873777</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.119840355858748</v>
+        <v>1.182219019948115</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1458535843967776</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.0878438910445707</v>
+        <v>-0.08784389104457052</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4992467936320145</v>
@@ -1188,7 +1188,7 @@
         <v>0.1596121609197688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0475416466270027</v>
+        <v>0.04754164662700285</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3335095132650547</v>
@@ -1197,7 +1197,7 @@
         <v>0.07963300495022876</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.03483222347865526</v>
+        <v>0.03483222347865547</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5992030390236178</v>
+        <v>-0.6461597460881163</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6305966338764625</v>
+        <v>-0.6034358578176765</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5292410998351567</v>
+        <v>-0.5186816180417103</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.04558167180321302</v>
+        <v>0.01049224269455951</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2324688731269081</v>
+        <v>-0.240247863936846</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.271217824970479</v>
+        <v>-0.2846989327132171</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09189253651357157</v>
+        <v>-0.07407999787625257</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2396388664510922</v>
+        <v>-0.2331380573771372</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2497839297060204</v>
+        <v>-0.2465964989887309</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7525250196628741</v>
+        <v>0.7275533476348639</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7320844953679254</v>
+        <v>0.9054031480443843</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7528233438090717</v>
+        <v>0.742507445768541</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.32254026530673</v>
+        <v>1.191522177067716</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7422840469745102</v>
+        <v>0.7400114708393267</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5363072371222921</v>
+        <v>0.5364842915615485</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8401366856894397</v>
+        <v>0.8636569861180873</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.559902865681477</v>
+        <v>0.5346147931594971</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4085181043758386</v>
+        <v>0.4362182254950484</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-0.147565573512605</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.514222709438418</v>
+        <v>2.514222709438416</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.7556086822461027</v>
@@ -1306,7 +1306,7 @@
         <v>-1.237387264577532</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.9555553465954013</v>
+        <v>0.9555553465954005</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.967506429659638</v>
+        <v>-2.969539180811979</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.420352079159325</v>
+        <v>-4.56673942302969</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.603889087538935</v>
+        <v>-2.704519737053483</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4963382557125214</v>
+        <v>-0.8329476626020864</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.051169188584926</v>
+        <v>-3.159468123360329</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.299335886954274</v>
+        <v>-0.05249391360894547</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.055309396955988</v>
+        <v>-1.215463716265976</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.960881751150171</v>
+        <v>-3.050438729325704</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8275155860652129</v>
+        <v>-0.895883866117794</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.277510750596659</v>
+        <v>1.482412910993251</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.9725979756815816</v>
+        <v>-0.9548779335484465</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.176049275351974</v>
+        <v>0.9960815156005642</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.721721396073566</v>
+        <v>5.593450946871736</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.469093555140438</v>
+        <v>2.426462384725599</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.952133946681569</v>
+        <v>4.799848259813241</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.93996311761562</v>
+        <v>2.694005376659845</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2843174272610084</v>
+        <v>0.1540105222284829</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.397791734093113</v>
+        <v>2.440958702569597</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.03805831291358244</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6484376561045847</v>
+        <v>0.6484376561045844</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2239116265877752</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3666784165408947</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2831623788583396</v>
+        <v>0.2831623788583394</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7257158823905191</v>
+        <v>-0.7076729332017024</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.948910572954841</v>
+        <v>-0.9550443579803445</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6069335886620173</v>
+        <v>-0.6024435874915508</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1237692164780184</v>
+        <v>-0.181289061386924</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.556827940956129</v>
+        <v>-0.5672129679403134</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05744373839404446</v>
+        <v>-0.01877925240973623</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2597254740683752</v>
+        <v>-0.2659135617482859</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6550576882451455</v>
+        <v>-0.6701399276688486</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1825463678054424</v>
+        <v>-0.2007979076802192</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7964152840222986</v>
+        <v>0.9027942527022293</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2985221692176993</v>
+        <v>-0.2527206471971124</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7064881261305332</v>
+        <v>0.643972648086947</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.425158561472298</v>
+        <v>2.442743419203854</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.141250223168739</v>
+        <v>1.057405500484253</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.27453926558595</v>
+        <v>2.214844493663583</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.156614938964494</v>
+        <v>1.066246881350874</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1419433942846434</v>
+        <v>0.1341196253110241</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.030676821750448</v>
+        <v>0.9848843378256774</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.9671134729561923</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.09056453547730756</v>
+        <v>0.09056453547730686</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.55081477463196</v>
+        <v>-1.48663936225156</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.500896881161309</v>
+        <v>-1.531718810298298</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6831705574026701</v>
+        <v>-0.6438477954429201</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3194077430254188</v>
+        <v>-0.3886925574603115</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.180834884187346</v>
+        <v>-2.153173802754865</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8801285176024699</v>
+        <v>-0.9002368503313549</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6244191114125772</v>
+        <v>-0.7091612867573663</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.555108168427094</v>
+        <v>-1.528452852647493</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5308633364636292</v>
+        <v>-0.5158834132622486</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1371540692202621</v>
+        <v>-0.1634665523812805</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1721529726349586</v>
+        <v>-0.1963114031684803</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7093370635775396</v>
+        <v>0.7435237225331198</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.931271850419955</v>
+        <v>1.922564114950231</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.06595674082812843</v>
+        <v>-0.01618180037495597</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.076251090433284</v>
+        <v>1.107429089508671</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6509261315552434</v>
+        <v>0.6730204959785246</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.3423805681532879</v>
+        <v>-0.3572155996879234</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7101720804872637</v>
+        <v>0.6573783966179639</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.2604732674553373</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.02439180213180389</v>
+        <v>0.0243918021318037</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5954024250886683</v>
+        <v>-0.5829761028333874</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5900059414419783</v>
+        <v>-0.5879071150128371</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2662632564373622</v>
+        <v>-0.2581223333013626</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05731243477727165</v>
+        <v>-0.07251659361275523</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.374419164378602</v>
+        <v>-0.375085582642337</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1476253483595146</v>
+        <v>-0.1530895308479898</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1542403232317882</v>
+        <v>-0.1793399488765088</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3802594897744927</v>
+        <v>-0.3830525932191566</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1305664851146412</v>
+        <v>-0.12933645927926</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.05585682841424829</v>
+        <v>-0.06622467041347069</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.08782151830702659</v>
+        <v>-0.09725784561456267</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4090238318550993</v>
+        <v>0.4436455379968875</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4133040769501931</v>
+        <v>0.4104930505003838</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.01077974500914399</v>
+        <v>-0.008089123574034204</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.224318200129756</v>
+        <v>0.2423975766326267</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1887219137649672</v>
+        <v>0.192399804547988</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.09160736148912307</v>
+        <v>-0.105761427789155</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2079376821342432</v>
+        <v>0.1978824688830534</v>
       </c>
     </row>
     <row r="34">
